--- a/BaluVideoSongs.xlsx
+++ b/BaluVideoSongs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-VideoApp-YouTubeApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE1258-CBEC-4742-8549-031C28B7311A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652A91A-26DC-4F4A-AFF5-66B0881F0380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,15 +50,6 @@
     <t>JsonUrl</t>
   </si>
   <si>
-    <t>Top100 Songs</t>
-  </si>
-  <si>
-    <t>Sad songs</t>
-  </si>
-  <si>
-    <t>Devoisnal songs</t>
-  </si>
-  <si>
     <t>Str_VideoUrl</t>
   </si>
   <si>
@@ -69,16 +60,33 @@
   </si>
   <si>
     <t>Str_MovieName</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-VideoApp-YouTubeApps/main/BaluVideoSongs.json</t>
+  </si>
+  <si>
+    <t>Saduguru</t>
+  </si>
+  <si>
+    <t>సద్గురువు</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,18 +397,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -416,20 +427,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{687A3F85-A8FE-49F7-B099-A18EFD760DA2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -486,16 +496,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/BaluVideoSongs.xlsx
+++ b/BaluVideoSongs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-VideoApp-YouTubeApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652A91A-26DC-4F4A-AFF5-66B0881F0380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B80697-5220-40A5-AC9B-07E686E40E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>EnglishHeaders</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Str_VideoUrl</t>
   </si>
   <si>
-    <t>Str_Icon</t>
-  </si>
-  <si>
     <t>Str_VideoName</t>
   </si>
   <si>
@@ -69,6 +66,18 @@
   </si>
   <si>
     <t>సద్గురువు</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-VideoApp-YouTubeApps/main/SadguruIcon.jpg</t>
+  </si>
+  <si>
+    <t>_MLTKgPwT1g</t>
+  </si>
+  <si>
+    <t>Sadhguru Telugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadhguru </t>
   </si>
 </sst>
 </file>
@@ -400,7 +409,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,18 +436,22 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{687A3F85-A8FE-49F7-B099-A18EFD760DA2}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{775DEF16-65BC-4D64-9DB6-C6658EB84482}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -482,10 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4C0D1-C9EB-4FE6-9A8B-A75246C3CF2B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +507,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -504,8 +517,27 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
